--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S2/S2_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S2/S2_dampingfactor.xlsx
@@ -14,276 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>90.47780548628428</t>
-  </si>
-  <si>
-    <t>92.1115876974231</t>
-  </si>
-  <si>
-    <t>93.06805712990251</t>
-  </si>
-  <si>
-    <t>93.60969006056287</t>
-  </si>
-  <si>
-    <t>95.0937323358271</t>
-  </si>
-  <si>
-    <t>96.43225270157939</t>
-  </si>
-  <si>
-    <t>97.56408977556109</t>
-  </si>
-  <si>
-    <t>98.9091715156553</t>
-  </si>
-  <si>
-    <t>98.72873372125241</t>
-  </si>
-  <si>
-    <t>99.40947630922693</t>
-  </si>
-  <si>
-    <t>100.14763092269327</t>
-  </si>
-  <si>
-    <t>100.95960099750623</t>
-  </si>
-  <si>
-    <t>101.9930174563591</t>
-  </si>
-  <si>
-    <t>103.1002493765586</t>
-  </si>
-  <si>
-    <t>104.25177057356608</t>
-  </si>
-  <si>
-    <t>105.34634841467759</t>
-  </si>
-  <si>
-    <t>106.24267901674385</t>
-  </si>
-  <si>
-    <t>107.89825436408977</t>
-  </si>
-  <si>
-    <t>109.5221945137157</t>
-  </si>
-  <si>
-    <t>111.14613466334164</t>
-  </si>
-  <si>
-    <t>112.77007481296758</t>
-  </si>
-  <si>
-    <t>114.3940149625935</t>
-  </si>
-  <si>
-    <t>116.01795511221945</t>
-  </si>
-  <si>
-    <t>117.64189526184538</t>
-  </si>
-  <si>
-    <t>119.26583541147131</t>
-  </si>
-  <si>
-    <t>120.88977556109725</t>
-  </si>
-  <si>
-    <t>122.51371571072319</t>
-  </si>
-  <si>
-    <t>124.13765586034913</t>
-  </si>
-  <si>
-    <t>125.76159600997505</t>
-  </si>
-  <si>
-    <t>127.385536159601</t>
-  </si>
-  <si>
-    <t>129.00947630922693</t>
-  </si>
-  <si>
-    <t>130.63341645885288</t>
-  </si>
-  <si>
-    <t>132.2573566084788</t>
-  </si>
-  <si>
-    <t>133.84438902743142</t>
-  </si>
-  <si>
-    <t>135.50523690773068</t>
-  </si>
-  <si>
-    <t>137.1291770573566</t>
-  </si>
-  <si>
-    <t>138.75311720698255</t>
-  </si>
-  <si>
-    <t>140.37705735660847</t>
-  </si>
-  <si>
-    <t>142.0009975062344</t>
-  </si>
-  <si>
-    <t>143.62493765586035</t>
-  </si>
-  <si>
-    <t>145.24887780548627</t>
-  </si>
-  <si>
-    <t>146.87281795511223</t>
-  </si>
-  <si>
-    <t>148.49675810473815</t>
-  </si>
-  <si>
-    <t>149.7516209476309</t>
-  </si>
-  <si>
-    <t>0.029099764471756398</t>
-  </si>
-  <si>
-    <t>0.033725896954851654</t>
-  </si>
-  <si>
-    <t>0.04194752365039739</t>
-  </si>
-  <si>
-    <t>0.057867156598767046</t>
-  </si>
-  <si>
-    <t>0.07239725879875296</t>
-  </si>
-  <si>
-    <t>0.0959054380596921</t>
-  </si>
-  <si>
-    <t>0.12669229054379305</t>
-  </si>
-  <si>
-    <t>0.21885152783580875</t>
-  </si>
-  <si>
-    <t>0.16527708993534906</t>
-  </si>
-  <si>
-    <t>0.19530087322311096</t>
-  </si>
-  <si>
-    <t>0.2472189274161801</t>
-  </si>
-  <si>
-    <t>0.3154951436477644</t>
-  </si>
-  <si>
-    <t>0.40779195861461853</t>
-  </si>
-  <si>
-    <t>0.530178167099257</t>
-  </si>
-  <si>
-    <t>0.684483340182752</t>
-  </si>
-  <si>
-    <t>0.8405106479818246</t>
-  </si>
-  <si>
-    <t>1.106269252467874</t>
-  </si>
-  <si>
-    <t>1.2514205531520892</t>
-  </si>
-  <si>
-    <t>1.3056586584255325</t>
-  </si>
-  <si>
-    <t>1.251190643926717</t>
-  </si>
-  <si>
-    <t>1.1576480612316966</t>
-  </si>
-  <si>
-    <t>1.0748453364280153</t>
-  </si>
-  <si>
-    <t>0.9722572773914702</t>
-  </si>
-  <si>
-    <t>0.900420722351756</t>
-  </si>
-  <si>
-    <t>0.8232760165643129</t>
-  </si>
-  <si>
-    <t>0.7754386031067326</t>
-  </si>
-  <si>
-    <t>0.7174221428757752</t>
-  </si>
-  <si>
-    <t>0.6724444082174592</t>
-  </si>
-  <si>
-    <t>0.6349662445671116</t>
-  </si>
-  <si>
-    <t>0.6027788319774883</t>
-  </si>
-  <si>
-    <t>0.5764716962258155</t>
-  </si>
-  <si>
-    <t>0.5486600550791602</t>
-  </si>
-  <si>
-    <t>0.5424435229260555</t>
-  </si>
-  <si>
-    <t>0.5196016601329293</t>
-  </si>
-  <si>
-    <t>0.5062125493642625</t>
-  </si>
-  <si>
-    <t>0.5017669960417348</t>
-  </si>
-  <si>
-    <t>0.4880304415971783</t>
-  </si>
-  <si>
-    <t>0.49168154768632344</t>
-  </si>
-  <si>
-    <t>0.4904014142624387</t>
-  </si>
-  <si>
-    <t>0.4975913795044336</t>
-  </si>
-  <si>
-    <t>0.4943904555675602</t>
-  </si>
-  <si>
-    <t>0.5039896312337169</t>
-  </si>
-  <si>
-    <t>0.5056012245381729</t>
-  </si>
-  <si>
-    <t>0.5242952137880396</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -656,355 +392,355 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
+      <c r="A2">
+        <v>90.47780548628428</v>
+      </c>
+      <c r="B2">
+        <v>0.0290997644717564</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
+      <c r="A3">
+        <v>92.1115876974231</v>
+      </c>
+      <c r="B3">
+        <v>0.03372589695485165</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
+      <c r="A4">
+        <v>93.06805712990251</v>
+      </c>
+      <c r="B4">
+        <v>0.04194752365039739</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
+      <c r="A5">
+        <v>93.60969006056287</v>
+      </c>
+      <c r="B5">
+        <v>0.05786715659876705</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
+      <c r="A6">
+        <v>95.0937323358271</v>
+      </c>
+      <c r="B6">
+        <v>0.07239725879875296</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
+      <c r="A7">
+        <v>96.43225270157939</v>
+      </c>
+      <c r="B7">
+        <v>0.09590543805969209</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
+      <c r="A8">
+        <v>97.56408977556109</v>
+      </c>
+      <c r="B8">
+        <v>0.1266922905437931</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
+      <c r="A9">
+        <v>98.9091715156553</v>
+      </c>
+      <c r="B9">
+        <v>0.2188515278358087</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
+      <c r="A10">
+        <v>98.72873372125241</v>
+      </c>
+      <c r="B10">
+        <v>0.1652770899353491</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
+      <c r="A11">
+        <v>99.40947630922693</v>
+      </c>
+      <c r="B11">
+        <v>0.195300873223111</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
+      <c r="A12">
+        <v>100.1476309226933</v>
+      </c>
+      <c r="B12">
+        <v>0.2472189274161801</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
+      <c r="A13">
+        <v>100.9596009975062</v>
+      </c>
+      <c r="B13">
+        <v>0.3154951436477644</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
+      <c r="A14">
+        <v>101.9930174563591</v>
+      </c>
+      <c r="B14">
+        <v>0.4077919586146185</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
+      <c r="A15">
+        <v>103.1002493765586</v>
+      </c>
+      <c r="B15">
+        <v>0.530178167099257</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
+      <c r="A16">
+        <v>104.2517705735661</v>
+      </c>
+      <c r="B16">
+        <v>0.684483340182752</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
+      <c r="A17">
+        <v>105.3463484146776</v>
+      </c>
+      <c r="B17">
+        <v>0.8405106479818246</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
+      <c r="A18">
+        <v>106.2426790167438</v>
+      </c>
+      <c r="B18">
+        <v>1.106269252467874</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
+      <c r="A19">
+        <v>107.8982543640898</v>
+      </c>
+      <c r="B19">
+        <v>1.251420553152089</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
+      <c r="A20">
+        <v>109.5221945137157</v>
+      </c>
+      <c r="B20">
+        <v>1.305658658425533</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
+      <c r="A21">
+        <v>111.1461346633416</v>
+      </c>
+      <c r="B21">
+        <v>1.251190643926717</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
+      <c r="A22">
+        <v>112.7700748129676</v>
+      </c>
+      <c r="B22">
+        <v>1.157648061231697</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
+      <c r="A23">
+        <v>114.3940149625935</v>
+      </c>
+      <c r="B23">
+        <v>1.074845336428015</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
+      <c r="A24">
+        <v>116.0179551122195</v>
+      </c>
+      <c r="B24">
+        <v>0.9722572773914702</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>69</v>
+      <c r="A25">
+        <v>117.6418952618454</v>
+      </c>
+      <c r="B25">
+        <v>0.900420722351756</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
+      <c r="A26">
+        <v>119.2658354114713</v>
+      </c>
+      <c r="B26">
+        <v>0.8232760165643129</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
+      <c r="A27">
+        <v>120.8897755610973</v>
+      </c>
+      <c r="B27">
+        <v>0.7754386031067326</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
+      <c r="A28">
+        <v>122.5137157107232</v>
+      </c>
+      <c r="B28">
+        <v>0.7174221428757752</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
+      <c r="A29">
+        <v>124.1376558603491</v>
+      </c>
+      <c r="B29">
+        <v>0.6724444082174592</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
+      <c r="A30">
+        <v>125.7615960099751</v>
+      </c>
+      <c r="B30">
+        <v>0.6349662445671116</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>75</v>
+      <c r="A31">
+        <v>127.385536159601</v>
+      </c>
+      <c r="B31">
+        <v>0.6027788319774883</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
+      <c r="A32">
+        <v>129.0094763092269</v>
+      </c>
+      <c r="B32">
+        <v>0.5764716962258155</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
+      <c r="A33">
+        <v>130.6334164588529</v>
+      </c>
+      <c r="B33">
+        <v>0.5486600550791602</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
+      <c r="A34">
+        <v>132.2573566084788</v>
+      </c>
+      <c r="B34">
+        <v>0.5424435229260555</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
+      <c r="A35">
+        <v>133.8443890274314</v>
+      </c>
+      <c r="B35">
+        <v>0.5196016601329293</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
+      <c r="A36">
+        <v>135.5052369077307</v>
+      </c>
+      <c r="B36">
+        <v>0.5062125493642625</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
+      <c r="A37">
+        <v>137.1291770573566</v>
+      </c>
+      <c r="B37">
+        <v>0.5017669960417348</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
+      <c r="A38">
+        <v>138.7531172069826</v>
+      </c>
+      <c r="B38">
+        <v>0.4880304415971783</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
+      <c r="A39">
+        <v>140.3770573566085</v>
+      </c>
+      <c r="B39">
+        <v>0.4916815476863234</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
+      <c r="A40">
+        <v>142.0009975062344</v>
+      </c>
+      <c r="B40">
+        <v>0.4904014142624387</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
+      <c r="A41">
+        <v>143.6249376558604</v>
+      </c>
+      <c r="B41">
+        <v>0.4975913795044336</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
+      <c r="A42">
+        <v>145.2488778054863</v>
+      </c>
+      <c r="B42">
+        <v>0.4943904555675602</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
+      <c r="A43">
+        <v>146.8728179551122</v>
+      </c>
+      <c r="B43">
+        <v>0.5039896312337169</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
+      <c r="A44">
+        <v>148.4967581047381</v>
+      </c>
+      <c r="B44">
+        <v>0.5056012245381729</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
+      <c r="A45">
+        <v>149.7516209476309</v>
+      </c>
+      <c r="B45">
+        <v>0.5242952137880396</v>
       </c>
     </row>
   </sheetData>
